--- a/Financial Analysis/STNE.xlsx
+++ b/Financial Analysis/STNE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C3E703-594B-4B6D-BCD9-93DAAFB99640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD95A12-E16A-4B00-BD31-FA47948A26A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{739ADCDA-92AA-4302-8B1F-47F1B6FD860D}"/>
   </bookViews>
@@ -415,7 +415,7 @@
     <t>Impairment</t>
   </si>
   <si>
-    <t>Undervalued</t>
+    <t>Slightly undervalued</t>
   </si>
 </sst>
 </file>
@@ -947,7 +947,7 @@
   <dimension ref="C2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,14 +972,14 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>11.39</v>
+        <v>13.77</v>
       </c>
       <c r="E3" s="6">
-        <v>45751</v>
+        <v>45780</v>
       </c>
       <c r="F3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45751</v>
+        <v>45780</v>
       </c>
       <c r="G3" s="6">
         <v>45832</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="D5" s="1">
         <f>D3*D4</f>
-        <v>3338.4090000000006</v>
+        <v>4035.9870000000001</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="D11" s="1">
         <f>D5-D10</f>
-        <v>4595.9531696113081</v>
+        <v>5293.5311696113076</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
@@ -1093,10 +1093,10 @@
   <dimension ref="B2:ER151"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AR99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AR9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS124" sqref="AS124"/>
+      <selection pane="bottomRight" activeCell="BC32" sqref="BC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="BC30" s="2">
         <f>Main!D3</f>
-        <v>11.39</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="31" spans="2:148" x14ac:dyDescent="0.3">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="BC31" s="11">
         <f>BC29/BC30-1</f>
-        <v>0.47478324345323664</v>
+        <v>0.21988243594280066</v>
       </c>
     </row>
     <row r="32" spans="2:148" x14ac:dyDescent="0.3">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="BA123" s="2">
         <f>Main!D3</f>
-        <v>11.39</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="124" spans="2:148" x14ac:dyDescent="0.3">
@@ -10865,7 +10865,7 @@
       </c>
       <c r="BA124" s="11">
         <f>BA122/BA123-1</f>
-        <v>0.30796026296362045</v>
+        <v>8.189305701929106E-2</v>
       </c>
     </row>
     <row r="125" spans="2:148" x14ac:dyDescent="0.3">
